--- a/doc/配表.xlsx
+++ b/doc/配表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ID" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,252 +98,238 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+  <si>
+    <t>技能名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>技能ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>技能触发概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能使用次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能BUFF效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能增加SAN值：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵种ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵种名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位死亡增加SAN值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>atb</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>rng</t>
+  </si>
+  <si>
+    <t>mov</t>
+  </si>
+  <si>
+    <t>Nyarlathotep</t>
+  </si>
+  <si>
+    <t>creature1</t>
+  </si>
+  <si>
+    <t>baseattack</t>
+  </si>
+  <si>
+    <t>basemove</t>
+  </si>
+  <si>
+    <t>Hounds of Tindalos</t>
+  </si>
+  <si>
+    <t>creature2</t>
+  </si>
+  <si>
+    <t>teleport</t>
+  </si>
+  <si>
+    <t>skill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movclass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkclass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklclass</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>技能ID</t>
+  </si>
+  <si>
+    <t>分类</t>
   </si>
   <si>
     <t>技能ICON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001-2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能触发概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能使用次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能攻击范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能BUFF效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技能伤害值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能增加SAN值：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵种ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵种名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位死亡增加SAN值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>atb</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>rng</t>
-  </si>
-  <si>
-    <t>atkmode</t>
-  </si>
-  <si>
-    <t>mov</t>
-  </si>
-  <si>
-    <t>movmode</t>
-  </si>
-  <si>
-    <t>Nyarlathotep</t>
-  </si>
-  <si>
-    <t>creature1</t>
-  </si>
-  <si>
-    <t>baseattack</t>
-  </si>
-  <si>
-    <t>basemove</t>
-  </si>
-  <si>
-    <t>Hounds of Tindalos</t>
-  </si>
-  <si>
-    <t>creature2</t>
-  </si>
-  <si>
-    <t>teleport</t>
-  </si>
-  <si>
-    <t>skill_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>directive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark</t>
+  </si>
+  <si>
+    <t>dirskill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dirskill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,12 +366,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -525,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -548,6 +540,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -862,26 +855,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -895,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -909,8 +902,8 @@
     <col min="6" max="6" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2"/>
+    <col min="9" max="9" width="10" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.5" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="3" bestFit="1" customWidth="1"/>
@@ -918,90 +911,90 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="N1" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -1009,10 +1002,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" s="6">
         <v>20</v>
@@ -1028,16 +1021,20 @@
         <v>6</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J3" s="6">
         <v>2</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="L3" s="6">
+        <v>10002</v>
+      </c>
+      <c r="M3" s="6">
+        <v>10001</v>
+      </c>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -1045,10 +1042,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
         <v>10</v>
@@ -1063,13 +1060,19 @@
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="L4" s="6">
+        <v>10001</v>
+      </c>
+      <c r="M4" s="6">
+        <v>10002</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -1112,113 +1115,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31" style="2" customWidth="1"/>
     <col min="11" max="11" width="15" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>11</v>
-      </c>
       <c r="G1" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>14</v>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>10001</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>10002</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>65</v>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/doc/配表.xlsx
+++ b/doc/配表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ID" sheetId="2" r:id="rId1"/>
@@ -325,12 +325,10 @@
     <t>dark</t>
   </si>
   <si>
-    <t>dirskill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dirskill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>effectskill</t>
+  </si>
+  <si>
+    <t>directiveskill</t>
   </si>
 </sst>
 </file>
@@ -888,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -1115,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1202,10 +1200,13 @@
         <v>10001</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>50</v>
@@ -1216,10 +1217,13 @@
         <v>10002</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>61</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>51</v>

--- a/doc/配表.xlsx
+++ b/doc/配表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ID" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,244 +98,254 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+  <si>
+    <t>技能说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能使用次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能BUFF效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能增加SAN值：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>atb</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>rng</t>
+  </si>
+  <si>
+    <t>mov</t>
+  </si>
+  <si>
+    <t>Nyarlathotep</t>
+  </si>
+  <si>
+    <t>creature1</t>
+  </si>
+  <si>
+    <t>baseattack</t>
+  </si>
+  <si>
+    <t>basemove</t>
+  </si>
+  <si>
+    <t>Hounds of Tindalos</t>
+  </si>
+  <si>
+    <t>creature2</t>
+  </si>
+  <si>
+    <t>teleport</t>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklclass</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>技能ID</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>技能ICON</t>
+  </si>
+  <si>
+    <t>技能伤害值</t>
+  </si>
+  <si>
+    <t>fog</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>effectskill</t>
+  </si>
+  <si>
+    <t>directiveskill</t>
+  </si>
+  <si>
+    <t>兵种ID</t>
+  </si>
+  <si>
+    <t>兵种名称</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>单位死亡增加SAN值</t>
+  </si>
+  <si>
+    <t>移动范围</t>
+  </si>
+  <si>
+    <t>移动方式</t>
+  </si>
+  <si>
+    <t>攻击范围</t>
+  </si>
+  <si>
+    <t>攻击方式</t>
+  </si>
+  <si>
+    <t>技能01</t>
+  </si>
+  <si>
+    <t>技能02</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>movclass</t>
+  </si>
+  <si>
+    <t>atkclass</t>
+  </si>
+  <si>
+    <t>skill_1</t>
+  </si>
+  <si>
+    <t>skill_2</t>
+  </si>
+  <si>
+    <t>skill_3</t>
+  </si>
+  <si>
+    <t>teleportattack</t>
+  </si>
+  <si>
+    <t>Shoggoth</t>
+  </si>
+  <si>
+    <t>creature3</t>
+  </si>
+  <si>
+    <t>deepones</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Ones</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>basemove</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseattack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reproduction</t>
+  </si>
   <si>
     <t>技能名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001-2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能触发概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能使用次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能攻击范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能BUFF效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能增加SAN值：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵种ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵种名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位死亡增加SAN值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>atb</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>rng</t>
-  </si>
-  <si>
-    <t>mov</t>
-  </si>
-  <si>
-    <t>Nyarlathotep</t>
-  </si>
-  <si>
-    <t>creature1</t>
-  </si>
-  <si>
-    <t>baseattack</t>
-  </si>
-  <si>
-    <t>basemove</t>
-  </si>
-  <si>
-    <t>Hounds of Tindalos</t>
-  </si>
-  <si>
-    <t>creature2</t>
-  </si>
-  <si>
-    <t>teleport</t>
-  </si>
-  <si>
-    <t>skill_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movclass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atkclass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sklclass</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>技能ID</t>
-  </si>
-  <si>
-    <t>分类</t>
-  </si>
-  <si>
-    <t>技能ICON</t>
-  </si>
-  <si>
-    <t>技能伤害值</t>
-  </si>
-  <si>
-    <t>fog</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>effectskill</t>
-  </si>
-  <si>
-    <t>directiveskill</t>
+  </si>
+  <si>
+    <t>splitskill</t>
+  </si>
+  <si>
+    <t>passiveskill</t>
+  </si>
+  <si>
+    <t>skill_10005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reproduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,6 +373,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -378,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -446,58 +463,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </left>
       <right style="thin">
@@ -515,29 +480,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -853,26 +811,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -886,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -900,150 +858,148 @@
     <col min="6" max="6" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="10" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.5" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="D3" s="2">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="L3" s="2">
+        <v>10002</v>
+      </c>
+      <c r="M3" s="2">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="6">
-        <v>20</v>
-      </c>
-      <c r="E3" s="6">
-        <v>5</v>
-      </c>
-      <c r="F3" s="6">
-        <v>3</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6">
-        <v>6</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="6">
-        <v>2</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="6">
-        <v>10002</v>
-      </c>
-      <c r="M3" s="6">
-        <v>10001</v>
-      </c>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D4" s="2">
         <v>10</v>
@@ -1052,32 +1008,93 @@
         <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="6">
-        <v>10001</v>
-      </c>
-      <c r="M4" s="6">
-        <v>10002</v>
+        <v>60</v>
+      </c>
+      <c r="L4" s="2">
+        <v>10004</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2">
+        <v>10003</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="2">
+        <v>10005</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
@@ -1106,127 +1123,177 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="3" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
     <col min="7" max="7" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
     <col min="9" max="9" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15" style="13" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="A1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>10001</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>63</v>
+      <c r="B3" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="2">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2">
         <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>10002</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>62</v>
+      <c r="B4" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="2">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>51</v>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>10003</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>10004</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>10005</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/doc/配表.xlsx
+++ b/doc/配表.xlsx
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
   <si>
     <t>技能说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,9 +300,6 @@
   </si>
   <si>
     <t>Shoggoth</t>
-  </si>
-  <si>
-    <t>creature3</t>
   </si>
   <si>
     <t>deepones</t>
@@ -339,13 +336,96 @@
   <si>
     <t>reproduction</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_10006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向性机能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分裂，生成一个子单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动机能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁衍，指定一个单位生成一个子单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咆哮，对周围单位造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoggoth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark Young of Shub-Niggurath</t>
+  </si>
+  <si>
+    <t>darkyoung</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接发动技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>践踏，对周围单位造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_10007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_10001</t>
+  </si>
+  <si>
+    <t>skill_10002</t>
+  </si>
+  <si>
+    <t>skill_10003</t>
+  </si>
+  <si>
+    <t>skill_10004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,22 +460,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -448,21 +529,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </left>
       <right style="thin">
@@ -482,21 +548,21 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -842,283 +908,355 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <v>20</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="6">
         <v>5</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="6">
         <v>3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="6">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="6">
         <v>2</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="6">
         <v>10002</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="6">
         <v>10001</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>10</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="6">
         <v>2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <v>5</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="6">
         <v>1</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="6">
         <v>10004</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="6">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6">
+        <v>6</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="6">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="6">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="6">
         <v>20</v>
       </c>
-      <c r="E5" s="2">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E7" s="6">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6">
         <v>3</v>
       </c>
-      <c r="H5" s="2">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="H7" s="6">
+        <v>3</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="6">
         <v>2</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="2">
-        <v>10003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="K7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="2">
-        <v>10005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
+      <c r="L7" s="6">
+        <v>10006</v>
+      </c>
+      <c r="M7" s="6">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1129,171 +1267,241 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="A1:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="1">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>10001</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>10002</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>10003</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>10004</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>10005</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>67</v>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/doc/配表.xlsx
+++ b/doc/配表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ID" sheetId="2" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
   <si>
     <t>技能说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,10 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shoggoth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,6 +415,25 @@
   </si>
   <si>
     <t>skill_10004</t>
+  </si>
+  <si>
+    <t>bom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reproduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>split</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trample</t>
+  </si>
+  <si>
+    <t>destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -910,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1101,7 +1116,7 @@
         <v>61</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="6">
         <v>20</v>
@@ -1168,10 +1183,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="D7" s="6">
         <v>20</v>
@@ -1269,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="A1:L9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1343,7 +1358,7 @@
         <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>29</v>
@@ -1366,7 +1381,7 @@
         <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>37</v>
@@ -1386,7 +1401,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>38</v>
@@ -1394,8 +1409,11 @@
       <c r="E4" s="1">
         <v>8</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="K4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1406,10 +1424,13 @@
         <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>74</v>
@@ -1423,7 +1444,7 @@
         <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>37</v>
@@ -1446,7 +1467,7 @@
         <v>66</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>76</v>
@@ -1457,19 +1478,19 @@
         <v>10006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -1483,25 +1504,25 @@
         <v>10007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/doc/配表.xlsx
+++ b/doc/配表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ID" sheetId="2" r:id="rId1"/>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -939,9 +939,9 @@
     <col min="6" max="6" width="5.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.75" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="6" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" style="6" hidden="1" customWidth="1"/>
     <col min="12" max="13" width="7.75" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.75" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="8"/>
@@ -1055,13 +1055,13 @@
         <v>3</v>
       </c>
       <c r="H3" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>22</v>
@@ -1084,7 +1084,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -1119,7 +1119,7 @@
         <v>79</v>
       </c>
       <c r="D5" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6">
         <v>5</v>
@@ -1128,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>23</v>
@@ -1154,7 +1154,7 @@
         <v>62</v>
       </c>
       <c r="D6" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E6" s="6">
         <v>3</v>
@@ -1189,13 +1189,13 @@
         <v>81</v>
       </c>
       <c r="D7" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="6">
         <v>3</v>
@@ -1284,21 +1284,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="33.875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.375" style="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1487,7 +1487,7 @@
         <v>86</v>
       </c>
       <c r="E8" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>93</v>
@@ -1513,7 +1513,7 @@
         <v>84</v>
       </c>
       <c r="E9" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>96</v>
